--- a/BalanceSheet/FLT_bal.xlsx
+++ b/BalanceSheet/FLT_bal.xlsx
@@ -1702,19 +1702,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-201962000.0</v>
+        <v>1054000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>453406000.0</v>
+        <v>1297000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-133815000.0</v>
+        <v>1096000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-27646000.0</v>
+        <v>1059000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-174288000.0</v>
+        <v>1250000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1375929000.0</v>
@@ -2514,19 +2514,19 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-9365000.0</v>
+        <v>498000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>2983000.0</v>
+        <v>506000000.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-1408000.0</v>
+        <v>501000000.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-7322000.0</v>
+        <v>487000000.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>26741000.0</v>
+        <v>520000000.0</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>457174000.0</v>
